--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF78306-D1B5-45A5-BC39-7B6C50E53678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB5ED6-4250-4243-849E-A38A0A575024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="2835" windowWidth="21255" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="3450" windowWidth="21255" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB5ED6-4250-4243-849E-A38A0A575024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C54B48-5541-411F-834C-0273F01D4EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="3450" windowWidth="21255" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="3435" windowWidth="21255" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC301D0-9F20-4656-9AC3-D5651FE5B5F9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,8 +772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C54B48-5541-411F-834C-0273F01D4EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA78814-1C69-4B8C-8DE8-0194F9C433E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3435" windowWidth="21255" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1830" windowWidth="21150" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -26,28 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type(接口提交类型)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExpectedResponseData(期望响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualResponseData(实际响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseId(用例编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,44 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/withdraw</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/list</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/bidLoad</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/add</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/audit</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/getLoanList</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/getFinanceLogList</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/recharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ApiName(接口名)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +169,58 @@
   </si>
   <si>
     <t>{"mobilephone":"18330372028","pwd":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/bidLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getLoanList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/generateRepayments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getInvestsByMemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getInvestsByLoanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getFinanceLogList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +556,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,16 +569,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,13 +614,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,13 +628,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -640,13 +642,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,13 +656,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -682,13 +684,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -710,13 +712,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,13 +740,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,28 +754,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -782,126 +785,118 @@
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.625" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA78814-1C69-4B8C-8DE8-0194F9C433E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47F9C0-2D45-4E55-BCB2-4D6B8EE0C49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1830" windowWidth="21150" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="2775" windowWidth="20850" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,26 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"18330372028","pwd":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"111111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18330372028","pwd":"12345"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18330372028","pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Params(参数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"18330372028","pwd":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://120.78.128.25:8765/futureloan/mvc/api/member/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +197,18 @@
   </si>
   <si>
     <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getFinanceLogList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-28"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-27"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC301D0-9F20-4656-9AC3-D5651FE5B5F9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -569,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -586,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -740,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -775,8 +763,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +772,7 @@
     <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -826,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47F9C0-2D45-4E55-BCB2-4D6B8EE0C49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356F588-E9E5-46A5-8008-7BAB2131591B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2775" windowWidth="20850" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="2235" windowWidth="20850" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://120.78.128.25:8765/futureloan/mvc/api/member/recharge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +201,14 @@
   </si>
   <si>
     <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-27"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/laohuangli/d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老黄历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +226,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -252,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,6 +276,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC301D0-9F20-4656-9AC3-D5651FE5B5F9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -574,181 +594,181 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +783,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,10 +817,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -811,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -825,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,10 +859,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -853,10 +873,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,13 +898,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356F588-E9E5-46A5-8008-7BAB2131591B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B53B8D-2CB9-4B95-92C4-4F278CBDC949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2235" windowWidth="20850" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="2550" windowWidth="20850" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Url(接口地址)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ApiName(接口名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,111 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLoanList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generateRepayments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInvestsByMemberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInvestsByLoanId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getFinanceLogList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApiName(接口名)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传手机号，不传密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/recharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/withdraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/bidLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getLoanList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/generateRepayments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getInvestsByMemberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getInvestsByLoanId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8765/futureloan/mvc/api/member/getFinanceLogList</t>
+    <t>http://v.juhe.cn/laohuangli/d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-28"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,19 +104,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-28"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-27"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://v.juhe.cn/laohuangli/d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老黄历</t>
+    <t>{"key":"","date":"2020-10-30"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-29"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-30"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-31"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,21 +134,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -267,20 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,33 +445,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC301D0-9F20-4656-9AC3-D5651FE5B5F9}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7A1BB-B5B4-443F-AC36-0D65840D9AA5}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,181 +479,83 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -781,130 +568,116 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.75" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/serviceauto/src/test/resources/servicecasesv3.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B53B8D-2CB9-4B95-92C4-4F278CBDC949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A05CFF-EC48-4D02-BC86-C7D1D0383EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="2550" windowWidth="20850" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2925" windowWidth="22290" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7A1BB-B5B4-443F-AC36-0D65840D9AA5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,8 +570,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
